--- a/requirements_file/markers/brain/development.xlsx
+++ b/requirements_file/markers/brain/development.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JSEQ_scRNAseq\requirements_file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904AAB2D-86AF-4CFE-80ED-4229F7E33599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
     <sheet name="types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>+GSX2</t>
   </si>
@@ -34,9 +28,6 @@
     <t>+GSX1</t>
   </si>
   <si>
-    <t>LHX2</t>
-  </si>
-  <si>
     <t>+LHX2</t>
   </si>
   <si>
@@ -46,27 +37,6 @@
     <t>+NEUROG2</t>
   </si>
   <si>
-    <t>NEUROG1</t>
-  </si>
-  <si>
-    <t>NEUROG2</t>
-  </si>
-  <si>
-    <t>EMX1</t>
-  </si>
-  <si>
-    <t>EMX2</t>
-  </si>
-  <si>
-    <t>GSX1</t>
-  </si>
-  <si>
-    <t>GSX2</t>
-  </si>
-  <si>
-    <t>ASCL1</t>
-  </si>
-  <si>
     <t>+ASCL1</t>
   </si>
   <si>
@@ -79,9 +49,6 @@
     <t>+LHX6</t>
   </si>
   <si>
-    <t>LHX6</t>
-  </si>
-  <si>
     <t>POA</t>
   </si>
   <si>
@@ -91,12 +58,6 @@
     <t>+SOX6</t>
   </si>
   <si>
-    <t>LHX8</t>
-  </si>
-  <si>
-    <t>SOX6</t>
-  </si>
-  <si>
     <t>LGE</t>
   </si>
   <si>
@@ -112,9 +73,6 @@
     <t>CTX</t>
   </si>
   <si>
-    <t>TBR1</t>
-  </si>
-  <si>
     <t>+TBR1</t>
   </si>
   <si>
@@ -145,27 +103,6 @@
     <t>+TTR</t>
   </si>
   <si>
-    <t>TTR</t>
-  </si>
-  <si>
-    <t>DBX1</t>
-  </si>
-  <si>
-    <t>HMX2</t>
-  </si>
-  <si>
-    <t>NKX6-2</t>
-  </si>
-  <si>
-    <t>NKX6.2</t>
-  </si>
-  <si>
-    <t>FOXP1</t>
-  </si>
-  <si>
-    <t>FOXP2</t>
-  </si>
-  <si>
     <t>MEL</t>
   </si>
   <si>
@@ -187,54 +124,24 @@
     <t>+NEUROD1</t>
   </si>
   <si>
-    <t>GBX2</t>
-  </si>
-  <si>
-    <t>TAC1</t>
-  </si>
-  <si>
-    <t>DRD1</t>
-  </si>
-  <si>
-    <t>DCT</t>
-  </si>
-  <si>
-    <t>NEUROD1</t>
-  </si>
-  <si>
     <t>CGE</t>
   </si>
   <si>
     <t>+PROX1</t>
   </si>
   <si>
-    <t>PROX1</t>
-  </si>
-  <si>
     <t>+NEUROD2</t>
   </si>
   <si>
-    <t>NEUROD2</t>
-  </si>
-  <si>
     <t>+ETV1</t>
   </si>
   <si>
-    <t>ETV1</t>
-  </si>
-  <si>
     <t>+NKX2.1</t>
   </si>
   <si>
     <t>+NKX2-1</t>
   </si>
   <si>
-    <t>NKX2.1</t>
-  </si>
-  <si>
-    <t>NKX2-1</t>
-  </si>
-  <si>
     <t>HYP</t>
   </si>
   <si>
@@ -244,26 +151,17 @@
     <t>+FOXG1</t>
   </si>
   <si>
-    <t>RAX1</t>
-  </si>
-  <si>
-    <t>FOXG1</t>
-  </si>
-  <si>
     <t>TET</t>
   </si>
   <si>
     <t>+BHLHE23</t>
-  </si>
-  <si>
-    <t>BHLHE23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -414,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -591,90 +489,90 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -690,45 +588,45 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -744,21 +642,21 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
@@ -775,21 +673,21 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1"/>
       <c r="K4" s="1"/>
@@ -806,19 +704,19 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="K5" s="1"/>
@@ -833,14 +731,14 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -856,15 +754,15 @@
       <c r="S6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -882,15 +780,15 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -912,12 +810,12 @@
       <c r="Y8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -939,7 +837,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -964,7 +862,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -986,7 +884,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1008,7 +906,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1031,7 +929,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1060,7 +958,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1089,7 +987,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1118,7 +1016,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1147,7 +1045,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1176,7 +1074,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1205,7 +1103,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1234,7 +1132,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1263,7 +1161,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1292,7 +1190,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1321,7 +1219,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1350,7 +1248,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1379,7 +1277,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1408,7 +1306,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1437,7 +1335,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1466,7 +1364,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1495,7 +1393,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1524,7 +1422,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1553,7 +1451,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1582,7 +1480,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1611,7 +1509,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1640,7 +1538,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1669,7 +1567,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1698,7 +1596,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1727,7 +1625,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1756,7 +1654,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1785,7 +1683,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1814,7 +1712,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1843,7 +1741,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1872,7 +1770,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1901,7 +1799,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1930,7 +1828,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1959,7 +1857,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1988,7 +1886,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2017,7 +1915,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2046,7 +1944,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2075,7 +1973,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2104,7 +2002,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2133,7 +2031,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2162,7 +2060,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2191,7 +2089,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2220,7 +2118,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2249,7 +2147,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2278,7 +2176,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2307,7 +2205,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2336,7 +2234,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2365,7 +2263,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2394,7 +2292,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2423,7 +2321,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2452,7 +2350,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2481,7 +2379,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2510,7 +2408,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2539,7 +2437,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2568,7 +2466,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2597,7 +2495,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2626,7 +2524,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2655,7 +2553,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2684,7 +2582,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2713,7 +2611,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2742,7 +2640,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2771,7 +2669,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2800,7 +2698,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2829,7 +2727,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2858,7 +2756,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2887,7 +2785,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2916,7 +2814,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2945,7 +2843,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2974,7 +2872,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3003,7 +2901,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3032,7 +2930,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3061,7 +2959,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3090,7 +2988,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3119,7 +3017,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3148,7 +3046,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3177,7 +3075,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3206,7 +3104,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3235,7 +3133,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3264,7 +3162,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3293,7 +3191,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3322,7 +3220,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3351,7 +3249,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3380,7 +3278,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3409,7 +3307,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3438,7 +3336,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3467,7 +3365,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3496,7 +3394,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3525,7 +3423,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3554,7 +3452,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3583,7 +3481,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3612,7 +3510,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3641,7 +3539,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3670,7 +3568,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3699,7 +3597,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3728,7 +3626,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3757,7 +3655,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3786,7 +3684,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3823,119 +3721,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="60" max="60" width="14.85546875" customWidth="1"/>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="30" max="30" width="14.88671875" customWidth="1"/>
+    <col min="60" max="60" width="14.88671875" customWidth="1"/>
+    <col min="65" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>76</v>
-      </c>
+    <row r="1" spans="1:94" s="2" customFormat="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
       <c r="AN1"/>
       <c r="AO1"/>
       <c r="AP1"/>
@@ -3963,32 +3783,32 @@
       <c r="BL1"/>
       <c r="BM1"/>
     </row>
-    <row r="2" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:94">
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
       <c r="CP6" s="1"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94">
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94">
       <c r="CM8" s="1"/>
       <c r="CO8" s="1"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94">
       <c r="CM9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94">
       <c r="CM10" s="1"/>
       <c r="CO10" s="1"/>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94">
       <c r="CM11" s="1"/>
       <c r="CO11" s="1"/>
     </row>
